--- a/data/pca/factorExposure/factorExposure_2010-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-29.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01608224128392538</v>
+        <v>-0.01699309013136151</v>
       </c>
       <c r="C2">
-        <v>-0.002484685943253173</v>
+        <v>0.001164271514941977</v>
       </c>
       <c r="D2">
-        <v>-0.008568222124960034</v>
+        <v>-0.008183323364609111</v>
       </c>
       <c r="E2">
-        <v>0.02119838239661899</v>
+        <v>-0.0006105205574445288</v>
       </c>
       <c r="F2">
-        <v>0.003815726863121975</v>
+        <v>-0.01226659325220327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1160511981235591</v>
+        <v>-0.09303228543027406</v>
       </c>
       <c r="C4">
-        <v>-0.08362249027162388</v>
+        <v>0.01695504765130771</v>
       </c>
       <c r="D4">
-        <v>0.0163914122029627</v>
+        <v>-0.08314000211650195</v>
       </c>
       <c r="E4">
-        <v>0.01644379488171037</v>
+        <v>0.02995875849168347</v>
       </c>
       <c r="F4">
-        <v>0.03519028746024687</v>
+        <v>0.03174481127639744</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1239461298112741</v>
+        <v>-0.1530923026607404</v>
       </c>
       <c r="C6">
-        <v>-0.03189948185466669</v>
+        <v>0.02482121978261739</v>
       </c>
       <c r="D6">
-        <v>-0.03210551061770744</v>
+        <v>0.02208712144408592</v>
       </c>
       <c r="E6">
-        <v>-0.04635771900271335</v>
+        <v>0.009383273989006308</v>
       </c>
       <c r="F6">
-        <v>0.003548107370823263</v>
+        <v>0.04110290504773238</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07551952629163394</v>
+        <v>-0.06017407248871276</v>
       </c>
       <c r="C7">
-        <v>-0.08049743010728512</v>
+        <v>-0.0003260218008340785</v>
       </c>
       <c r="D7">
-        <v>-0.008729631959219828</v>
+        <v>-0.05123388492837919</v>
       </c>
       <c r="E7">
-        <v>0.03820043656446955</v>
+        <v>0.01493418799559618</v>
       </c>
       <c r="F7">
-        <v>0.0102534202345192</v>
+        <v>0.0546693410460234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05168852144165025</v>
+        <v>-0.05872421674798933</v>
       </c>
       <c r="C8">
-        <v>-0.04334391202273905</v>
+        <v>-0.01275026306356828</v>
       </c>
       <c r="D8">
-        <v>0.00397024932791718</v>
+        <v>-0.02946429715209344</v>
       </c>
       <c r="E8">
-        <v>-0.03011081943593933</v>
+        <v>0.01435007138863738</v>
       </c>
       <c r="F8">
-        <v>-0.004741198315353315</v>
+        <v>-0.02980594946516151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08225571549364613</v>
+        <v>-0.07119679078107868</v>
       </c>
       <c r="C9">
-        <v>-0.06425809932108974</v>
+        <v>0.01308751944298438</v>
       </c>
       <c r="D9">
-        <v>0.02102273429416013</v>
+        <v>-0.08335952425170098</v>
       </c>
       <c r="E9">
-        <v>0.01006341320910421</v>
+        <v>0.02524144857968659</v>
       </c>
       <c r="F9">
-        <v>0.02939149746240285</v>
+        <v>0.05422618944065449</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1231990440671138</v>
+        <v>-0.09395201391008248</v>
       </c>
       <c r="C10">
-        <v>0.1566755487289298</v>
+        <v>0.01675359577095577</v>
       </c>
       <c r="D10">
-        <v>-0.02253902100570573</v>
+        <v>0.1715224637513051</v>
       </c>
       <c r="E10">
-        <v>0.03468071830975634</v>
+        <v>-0.03799691238954649</v>
       </c>
       <c r="F10">
-        <v>0.01075341657221712</v>
+        <v>-0.05290366388679227</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07955244837267175</v>
+        <v>-0.08779110989744555</v>
       </c>
       <c r="C11">
-        <v>-0.07212363739225992</v>
+        <v>0.01247370533383651</v>
       </c>
       <c r="D11">
-        <v>0.03328238784715985</v>
+        <v>-0.1141542977655652</v>
       </c>
       <c r="E11">
-        <v>-0.004575299796823007</v>
+        <v>0.04839339470412023</v>
       </c>
       <c r="F11">
-        <v>0.0342055566915155</v>
+        <v>0.02123264601959026</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07229423900293257</v>
+        <v>-0.09304272549549843</v>
       </c>
       <c r="C12">
-        <v>-0.07270234862887928</v>
+        <v>0.01033163847869876</v>
       </c>
       <c r="D12">
-        <v>0.05296254802036129</v>
+        <v>-0.1211743295342732</v>
       </c>
       <c r="E12">
-        <v>0.01421148968157665</v>
+        <v>0.04771499442731392</v>
       </c>
       <c r="F12">
-        <v>-0.01103521104429783</v>
+        <v>0.02347878815830571</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02899167052792014</v>
+        <v>-0.04290215007970283</v>
       </c>
       <c r="C13">
-        <v>-0.03358930167135939</v>
+        <v>0.003928735817539419</v>
       </c>
       <c r="D13">
-        <v>-0.01738354504921753</v>
+        <v>-0.04803387282099468</v>
       </c>
       <c r="E13">
-        <v>0.0164977680108969</v>
+        <v>-0.01139310503178702</v>
       </c>
       <c r="F13">
-        <v>-0.0008371406784568272</v>
+        <v>0.01452716658142964</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03828825469022799</v>
+        <v>-0.02211295658413093</v>
       </c>
       <c r="C14">
-        <v>-0.03275713832992591</v>
+        <v>0.01464962083569156</v>
       </c>
       <c r="D14">
-        <v>0.02301701162015905</v>
+        <v>-0.0326800643233854</v>
       </c>
       <c r="E14">
-        <v>-0.002158619111759773</v>
+        <v>0.01933274332421052</v>
       </c>
       <c r="F14">
-        <v>-0.01290338269555355</v>
+        <v>0.01847047191345632</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01554286240596553</v>
+        <v>-0.03191773185021471</v>
       </c>
       <c r="C15">
-        <v>-0.01823507594149517</v>
+        <v>0.005505587979359569</v>
       </c>
       <c r="D15">
-        <v>-0.0626516181387381</v>
+        <v>-0.0455261176443949</v>
       </c>
       <c r="E15">
-        <v>0.01539111704389529</v>
+        <v>0.009193806837391936</v>
       </c>
       <c r="F15">
-        <v>0.01297210258463559</v>
+        <v>0.03177858470769119</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08413606640785423</v>
+        <v>-0.07421505013784924</v>
       </c>
       <c r="C16">
-        <v>-0.07057527508602283</v>
+        <v>0.003970173464826796</v>
       </c>
       <c r="D16">
-        <v>0.04651173398287791</v>
+        <v>-0.1160592817485399</v>
       </c>
       <c r="E16">
-        <v>-0.02424844956387869</v>
+        <v>0.06281503646436057</v>
       </c>
       <c r="F16">
-        <v>0.0153292257353137</v>
+        <v>0.03186642358986132</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02159610697292255</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003743144172796345</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02109232978867941</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01060615447590032</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02470274135991747</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04596386079194169</v>
+        <v>-0.06144287815095298</v>
       </c>
       <c r="C20">
-        <v>-0.04820843780094344</v>
+        <v>0.001872396022993259</v>
       </c>
       <c r="D20">
-        <v>-0.02010920724441537</v>
+        <v>-0.07411517236501733</v>
       </c>
       <c r="E20">
-        <v>0.03215440500502166</v>
+        <v>0.05568595024954297</v>
       </c>
       <c r="F20">
-        <v>-0.01851629423638141</v>
+        <v>0.02907795168056807</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02441492628250407</v>
+        <v>-0.03857482704691718</v>
       </c>
       <c r="C21">
-        <v>-0.01002926464191128</v>
+        <v>0.007688409938656649</v>
       </c>
       <c r="D21">
-        <v>0.02318672336933757</v>
+        <v>-0.03529855894921567</v>
       </c>
       <c r="E21">
-        <v>-0.001800963204699494</v>
+        <v>-0.008514944957502397</v>
       </c>
       <c r="F21">
-        <v>0.01808602185850176</v>
+        <v>-0.02068506393736783</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04651240865477829</v>
+        <v>-0.04174310923037958</v>
       </c>
       <c r="C22">
-        <v>-0.005091640258227458</v>
+        <v>5.748881290926922e-05</v>
       </c>
       <c r="D22">
-        <v>-0.6204633044186519</v>
+        <v>-0.003239464043169563</v>
       </c>
       <c r="E22">
-        <v>0.1262488768884496</v>
+        <v>0.02954295616257717</v>
       </c>
       <c r="F22">
-        <v>-0.1456728475957227</v>
+        <v>-0.01007646900349524</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04711796570020589</v>
+        <v>-0.04180471586587708</v>
       </c>
       <c r="C23">
-        <v>-0.006214398046521715</v>
+        <v>8.236418717889235e-05</v>
       </c>
       <c r="D23">
-        <v>-0.62289429835761</v>
+        <v>-0.00336046711220134</v>
       </c>
       <c r="E23">
-        <v>0.1255796845509435</v>
+        <v>0.02989303531696141</v>
       </c>
       <c r="F23">
-        <v>-0.1458812588668748</v>
+        <v>-0.009617833116299695</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0830077155154393</v>
+        <v>-0.08067553700439303</v>
       </c>
       <c r="C24">
-        <v>-0.07159544253008675</v>
+        <v>0.004321703095811781</v>
       </c>
       <c r="D24">
-        <v>0.04181451018031791</v>
+        <v>-0.1171427081406564</v>
       </c>
       <c r="E24">
-        <v>-0.002884547973491956</v>
+        <v>0.05068486223036427</v>
       </c>
       <c r="F24">
-        <v>0.04107921852542502</v>
+        <v>0.02419058220006752</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08688250855083166</v>
+        <v>-0.08524435481125599</v>
       </c>
       <c r="C25">
-        <v>-0.07290598142407437</v>
+        <v>0.006321128522388772</v>
       </c>
       <c r="D25">
-        <v>0.05666425974142887</v>
+        <v>-0.1057437417186607</v>
       </c>
       <c r="E25">
-        <v>0.009052925147457579</v>
+        <v>0.03391868218581802</v>
       </c>
       <c r="F25">
-        <v>0.01251181166663123</v>
+        <v>0.03159793644458123</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03935973491678812</v>
+        <v>-0.05550706828180365</v>
       </c>
       <c r="C26">
-        <v>0.003687905094005899</v>
+        <v>0.01526218125113763</v>
       </c>
       <c r="D26">
-        <v>-0.01539601975108364</v>
+        <v>-0.03603626195008572</v>
       </c>
       <c r="E26">
-        <v>-0.02158329419357209</v>
+        <v>0.02812264524627633</v>
       </c>
       <c r="F26">
-        <v>-0.02041568373667589</v>
+        <v>-0.007853769161306982</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1441611228331345</v>
+        <v>-0.1416797009362566</v>
       </c>
       <c r="C28">
-        <v>0.2874160358580471</v>
+        <v>0.01466236149254821</v>
       </c>
       <c r="D28">
-        <v>0.01047599176344637</v>
+        <v>0.2675646243317438</v>
       </c>
       <c r="E28">
-        <v>-0.06535111681755731</v>
+        <v>-0.06841305810275479</v>
       </c>
       <c r="F28">
-        <v>-0.03870435363631171</v>
+        <v>0.0315286565273311</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03522213135500905</v>
+        <v>-0.02709669100757722</v>
       </c>
       <c r="C29">
-        <v>-0.02884877232256968</v>
+        <v>0.0088564404597579</v>
       </c>
       <c r="D29">
-        <v>0.01981989952437042</v>
+        <v>-0.03134281924214718</v>
       </c>
       <c r="E29">
-        <v>0.0318816172621052</v>
+        <v>0.01220315628764178</v>
       </c>
       <c r="F29">
-        <v>-0.02207665151741311</v>
+        <v>-0.01216953899737984</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09551677519291114</v>
+        <v>-0.06364479003159391</v>
       </c>
       <c r="C30">
-        <v>-0.1021549135965582</v>
+        <v>0.005822081501004009</v>
       </c>
       <c r="D30">
-        <v>0.05255326031762529</v>
+        <v>-0.08292516280973009</v>
       </c>
       <c r="E30">
-        <v>-0.06360915231423038</v>
+        <v>0.0248755267970612</v>
       </c>
       <c r="F30">
-        <v>-0.08614660628753791</v>
+        <v>0.1075253495164184</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03122275207767533</v>
+        <v>-0.04849144485213801</v>
       </c>
       <c r="C31">
-        <v>-0.04617236088954174</v>
+        <v>0.01513703204407392</v>
       </c>
       <c r="D31">
-        <v>0.002974031966906794</v>
+        <v>-0.02798229480002582</v>
       </c>
       <c r="E31">
-        <v>0.01843692304652636</v>
+        <v>0.02741264119591811</v>
       </c>
       <c r="F31">
-        <v>0.01286838231076737</v>
+        <v>-0.004225828678453267</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05316554603717275</v>
+        <v>-0.04821294419671004</v>
       </c>
       <c r="C32">
-        <v>-0.02572219833900842</v>
+        <v>0.0004303931101041878</v>
       </c>
       <c r="D32">
-        <v>0.04074424863710319</v>
+        <v>-0.03042316489548833</v>
       </c>
       <c r="E32">
-        <v>-0.05776273400440281</v>
+        <v>0.02953535598649295</v>
       </c>
       <c r="F32">
-        <v>0.05753160657179132</v>
+        <v>0.0008521349368724464</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09441451195726158</v>
+        <v>-0.09037194194942652</v>
       </c>
       <c r="C33">
-        <v>-0.06654186110310482</v>
+        <v>0.009527599969368909</v>
       </c>
       <c r="D33">
-        <v>0.02738020198729944</v>
+        <v>-0.09365181105836659</v>
       </c>
       <c r="E33">
-        <v>0.005047237720820138</v>
+        <v>0.0466710060181368</v>
       </c>
       <c r="F33">
-        <v>0.004812682306888819</v>
+        <v>0.04190945317485105</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06961340462483397</v>
+        <v>-0.0684785383640901</v>
       </c>
       <c r="C34">
-        <v>-0.05410197520741385</v>
+        <v>0.01249556575992887</v>
       </c>
       <c r="D34">
-        <v>0.04278372795880435</v>
+        <v>-0.09789590150148823</v>
       </c>
       <c r="E34">
-        <v>-0.005284316594319163</v>
+        <v>0.03554362759489088</v>
       </c>
       <c r="F34">
-        <v>0.01590726880552808</v>
+        <v>0.04421349103916685</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01305690205712729</v>
+        <v>-0.02445505013465966</v>
       </c>
       <c r="C35">
-        <v>-0.01983610438340377</v>
+        <v>0.00255445542282723</v>
       </c>
       <c r="D35">
-        <v>0.006807485339971874</v>
+        <v>-0.01158688921347728</v>
       </c>
       <c r="E35">
-        <v>0.01549747844962088</v>
+        <v>0.01164083703791797</v>
       </c>
       <c r="F35">
-        <v>-0.02446538404421298</v>
+        <v>0.01005118053764515</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02369500181755249</v>
+        <v>-0.02404107219282936</v>
       </c>
       <c r="C36">
-        <v>-0.01931316019082674</v>
+        <v>0.007468856912144908</v>
       </c>
       <c r="D36">
-        <v>-0.002426287417708154</v>
+        <v>-0.03846800300735559</v>
       </c>
       <c r="E36">
-        <v>-0.002736229989733959</v>
+        <v>0.01735207357217477</v>
       </c>
       <c r="F36">
-        <v>-0.007140937306509804</v>
+        <v>0.01071462651193992</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.01018062106893873</v>
+        <v>-0.001721800556874031</v>
       </c>
       <c r="C38">
-        <v>-0.01770607871713362</v>
+        <v>0.0002928962312911092</v>
       </c>
       <c r="D38">
-        <v>-0.0222066961333814</v>
+        <v>-0.001549624390108004</v>
       </c>
       <c r="E38">
-        <v>0.0329231197656123</v>
+        <v>0.001810734039964151</v>
       </c>
       <c r="F38">
-        <v>-0.06930620362556468</v>
+        <v>-0.0004924825522579173</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1157380291060814</v>
+        <v>-0.1095135306715622</v>
       </c>
       <c r="C39">
-        <v>-0.1157599328405347</v>
+        <v>0.01793711852983348</v>
       </c>
       <c r="D39">
-        <v>0.1572347405191569</v>
+        <v>-0.1520832860454731</v>
       </c>
       <c r="E39">
-        <v>-0.01623662255658135</v>
+        <v>0.06055944908629993</v>
       </c>
       <c r="F39">
-        <v>-0.07730020993983344</v>
+        <v>0.03225116517911931</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01603914198539017</v>
+        <v>-0.0370293263653963</v>
       </c>
       <c r="C40">
-        <v>-0.05403576368564374</v>
+        <v>0.007339813954031507</v>
       </c>
       <c r="D40">
-        <v>-0.0386570570635494</v>
+        <v>-0.03125670145318318</v>
       </c>
       <c r="E40">
-        <v>0.05691503765326905</v>
+        <v>0.003452878431960446</v>
       </c>
       <c r="F40">
-        <v>0.04947898564435436</v>
+        <v>-0.01321768792385707</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02845087146110491</v>
+        <v>-0.02614520987928439</v>
       </c>
       <c r="C41">
-        <v>-0.01611153857431129</v>
+        <v>0.006812127678255107</v>
       </c>
       <c r="D41">
-        <v>0.01420837237261761</v>
+        <v>-0.01064670044962479</v>
       </c>
       <c r="E41">
-        <v>0.009566001448659555</v>
+        <v>0.01208972725228723</v>
       </c>
       <c r="F41">
-        <v>-0.02497782971933823</v>
+        <v>-0.009991842442350725</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03758717806452574</v>
+        <v>-0.04112643955530348</v>
       </c>
       <c r="C43">
-        <v>-0.01988305677832346</v>
+        <v>0.006830100056859501</v>
       </c>
       <c r="D43">
-        <v>-0.007622031107809654</v>
+        <v>-0.0204259167802748</v>
       </c>
       <c r="E43">
-        <v>-0.001523365396328417</v>
+        <v>0.025164245419141</v>
       </c>
       <c r="F43">
-        <v>-0.05898877123555767</v>
+        <v>-0.01132605500009099</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1317089135941797</v>
+        <v>-0.07197286562315749</v>
       </c>
       <c r="C44">
-        <v>-0.1578124017113016</v>
+        <v>0.02205523513902816</v>
       </c>
       <c r="D44">
-        <v>-0.08487201502026812</v>
+        <v>-0.1008016190688334</v>
       </c>
       <c r="E44">
-        <v>0.09739935823185833</v>
+        <v>0.06759106826682286</v>
       </c>
       <c r="F44">
-        <v>0.0632814589805006</v>
+        <v>0.168240048432005</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02840791171685267</v>
+        <v>-0.0219145097080125</v>
       </c>
       <c r="C46">
-        <v>-0.004992560524600569</v>
+        <v>0.004183987410089168</v>
       </c>
       <c r="D46">
-        <v>-0.02256690856277147</v>
+        <v>-0.01118256790732913</v>
       </c>
       <c r="E46">
-        <v>0.03246492814160896</v>
+        <v>0.02327972474526463</v>
       </c>
       <c r="F46">
-        <v>-0.03599366814868705</v>
+        <v>0.0001410646883303823</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03826877426037117</v>
+        <v>-0.05188896465516701</v>
       </c>
       <c r="C47">
-        <v>-0.03331387873892849</v>
+        <v>0.00335339884960569</v>
       </c>
       <c r="D47">
-        <v>0.002265405672753228</v>
+        <v>-0.01233359097302862</v>
       </c>
       <c r="E47">
-        <v>0.01303433588999853</v>
+        <v>0.02234092434122269</v>
       </c>
       <c r="F47">
-        <v>0.001523144756325837</v>
+        <v>-0.04532545197731895</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04384009111940237</v>
+        <v>-0.04769697511603899</v>
       </c>
       <c r="C48">
-        <v>-0.01923340561209372</v>
+        <v>0.003274786555587458</v>
       </c>
       <c r="D48">
-        <v>0.005730028121526889</v>
+        <v>-0.04799203117572935</v>
       </c>
       <c r="E48">
-        <v>0.02018319807517472</v>
+        <v>-0.003884254710707445</v>
       </c>
       <c r="F48">
-        <v>0.03610048476850888</v>
+        <v>0.01100144722599634</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2137778980357488</v>
+        <v>-0.2032634992407058</v>
       </c>
       <c r="C49">
-        <v>0.03050585699140526</v>
+        <v>0.01738672074908199</v>
       </c>
       <c r="D49">
-        <v>0.009367632954741174</v>
+        <v>0.01181041320475172</v>
       </c>
       <c r="E49">
-        <v>0.07493480370792942</v>
+        <v>0.03359409413399383</v>
       </c>
       <c r="F49">
-        <v>0.1293127848870253</v>
+        <v>0.036509964387111</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03797919017408874</v>
+        <v>-0.04843505512112346</v>
       </c>
       <c r="C50">
-        <v>-0.03104080923910848</v>
+        <v>0.01125498884594032</v>
       </c>
       <c r="D50">
-        <v>0.01957358838777534</v>
+        <v>-0.02657637715825262</v>
       </c>
       <c r="E50">
-        <v>0.006371288711704707</v>
+        <v>0.02907174999043007</v>
       </c>
       <c r="F50">
-        <v>0.002810028133267554</v>
+        <v>0.008832667072490573</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01607827012096454</v>
+        <v>-0.002476455212224957</v>
       </c>
       <c r="C51">
-        <v>0.02205865497919487</v>
+        <v>0.0006411148094298345</v>
       </c>
       <c r="D51">
-        <v>-0.005224340751270718</v>
+        <v>0.002994125088827924</v>
       </c>
       <c r="E51">
-        <v>0.008667364174322871</v>
+        <v>-0.0004754207812950295</v>
       </c>
       <c r="F51">
-        <v>0.0003022160653802097</v>
+        <v>0.005739489134380094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09655370308704912</v>
+        <v>-0.1448893898657935</v>
       </c>
       <c r="C52">
-        <v>-0.08947758386356579</v>
+        <v>0.01352720298005325</v>
       </c>
       <c r="D52">
-        <v>0.03222787963776225</v>
+        <v>-0.05144451115834522</v>
       </c>
       <c r="E52">
-        <v>0.02173501027711099</v>
+        <v>0.02295488351462209</v>
       </c>
       <c r="F52">
-        <v>-0.07818365892760604</v>
+        <v>0.03423345236436393</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1620387977021321</v>
+        <v>-0.174002591494376</v>
       </c>
       <c r="C53">
-        <v>-0.04944909080306535</v>
+        <v>0.0164069879966328</v>
       </c>
       <c r="D53">
-        <v>-0.001773194775513564</v>
+        <v>-0.01237781908092375</v>
       </c>
       <c r="E53">
-        <v>0.0452402491496165</v>
+        <v>0.03586729361931996</v>
       </c>
       <c r="F53">
-        <v>-0.09991271691164548</v>
+        <v>0.06378962112037692</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05575007297562057</v>
+        <v>-0.02179794893226756</v>
       </c>
       <c r="C54">
-        <v>-0.06231145435552683</v>
+        <v>0.01242545352254521</v>
       </c>
       <c r="D54">
-        <v>-0.01127141920230459</v>
+        <v>-0.03412480257861536</v>
       </c>
       <c r="E54">
-        <v>0.01806048564674582</v>
+        <v>0.0155371883770024</v>
       </c>
       <c r="F54">
-        <v>0.01220753972834899</v>
+        <v>-0.004773779122091292</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0894662728042971</v>
+        <v>-0.1144598559244152</v>
       </c>
       <c r="C55">
-        <v>-0.0444504580519362</v>
+        <v>0.01504421173061004</v>
       </c>
       <c r="D55">
-        <v>0.03232304662100421</v>
+        <v>-0.01132799933011511</v>
       </c>
       <c r="E55">
-        <v>0.01752052309021576</v>
+        <v>0.03046590674457946</v>
       </c>
       <c r="F55">
-        <v>-0.05237141616095718</v>
+        <v>0.04638085189519294</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1544725391395823</v>
+        <v>-0.1776996022926049</v>
       </c>
       <c r="C56">
-        <v>-0.07691237626318334</v>
+        <v>0.01378771870656263</v>
       </c>
       <c r="D56">
-        <v>0.02932738798212628</v>
+        <v>-0.007737803666335272</v>
       </c>
       <c r="E56">
-        <v>0.07802474989432338</v>
+        <v>0.0404080973459393</v>
       </c>
       <c r="F56">
-        <v>-0.05439456217529558</v>
+        <v>0.03997369252583505</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04918657548534767</v>
+        <v>-0.04607279409219033</v>
       </c>
       <c r="C58">
-        <v>-0.04459971109357665</v>
+        <v>0.002368225799852729</v>
       </c>
       <c r="D58">
-        <v>-0.06948118350917103</v>
+        <v>-0.06525338182829912</v>
       </c>
       <c r="E58">
-        <v>0.03014485069384914</v>
+        <v>0.0227811154688302</v>
       </c>
       <c r="F58">
-        <v>-0.03714028253831949</v>
+        <v>-0.04665166965014478</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2007906467249821</v>
+        <v>-0.1713517371336784</v>
       </c>
       <c r="C59">
-        <v>0.2389111730010099</v>
+        <v>0.01606993946882603</v>
       </c>
       <c r="D59">
-        <v>0.03816513101631372</v>
+        <v>0.225717802599447</v>
       </c>
       <c r="E59">
-        <v>-0.02608500427289878</v>
+        <v>-0.04924985930185442</v>
       </c>
       <c r="F59">
-        <v>0.06055752962249458</v>
+        <v>-0.03128220703604261</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.233123042976658</v>
+        <v>-0.237108093754747</v>
       </c>
       <c r="C60">
-        <v>-0.08463713830769773</v>
+        <v>-0.004057862801621528</v>
       </c>
       <c r="D60">
-        <v>0.05122731824769985</v>
+        <v>-0.04675173067169686</v>
       </c>
       <c r="E60">
-        <v>0.1069291451026553</v>
+        <v>0.006865714562286599</v>
       </c>
       <c r="F60">
-        <v>0.07019735593622906</v>
+        <v>-0.0302475222104064</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1104735123042199</v>
+        <v>-0.08415965265185756</v>
       </c>
       <c r="C61">
-        <v>-0.07330671958519153</v>
+        <v>0.01404518313490841</v>
       </c>
       <c r="D61">
-        <v>0.1147447566294551</v>
+        <v>-0.1119902928167524</v>
       </c>
       <c r="E61">
-        <v>0.01795401117360828</v>
+        <v>0.04171150952292645</v>
       </c>
       <c r="F61">
-        <v>-0.05146651884618073</v>
+        <v>0.01784401206270404</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1544370457743748</v>
+        <v>-0.1704981883521531</v>
       </c>
       <c r="C62">
-        <v>-0.05656680511630841</v>
+        <v>0.01775954259305231</v>
       </c>
       <c r="D62">
-        <v>0.0005675260351475442</v>
+        <v>-0.01121257465434832</v>
       </c>
       <c r="E62">
-        <v>0.05838503122980858</v>
+        <v>0.03807513356721749</v>
       </c>
       <c r="F62">
-        <v>-0.04515610307512585</v>
+        <v>0.02133163428064727</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03940383718231663</v>
+        <v>-0.04297286775954463</v>
       </c>
       <c r="C63">
-        <v>-0.02062348058579889</v>
+        <v>0.003574938742602046</v>
       </c>
       <c r="D63">
-        <v>-0.004485929106577476</v>
+        <v>-0.05087585370203186</v>
       </c>
       <c r="E63">
-        <v>-0.03007648165178314</v>
+        <v>0.02254776752852958</v>
       </c>
       <c r="F63">
-        <v>0.01574594848430173</v>
+        <v>0.007981812216467959</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09282303635429397</v>
+        <v>-0.1121579124196972</v>
       </c>
       <c r="C64">
-        <v>-0.04879734040143033</v>
+        <v>0.01198259967947093</v>
       </c>
       <c r="D64">
-        <v>0.0122633933609697</v>
+        <v>-0.04212777666408047</v>
       </c>
       <c r="E64">
-        <v>0.06332161124221879</v>
+        <v>0.02125508421467763</v>
       </c>
       <c r="F64">
-        <v>-0.04263694831118346</v>
+        <v>0.02341358782717425</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1122967201858063</v>
+        <v>-0.1444279508008997</v>
       </c>
       <c r="C65">
-        <v>-0.01901644484004909</v>
+        <v>0.0311697910918137</v>
       </c>
       <c r="D65">
-        <v>-0.0002210498304981967</v>
+        <v>0.04281697159811023</v>
       </c>
       <c r="E65">
-        <v>-0.06152180332594346</v>
+        <v>0.0003868150102080956</v>
       </c>
       <c r="F65">
-        <v>-0.0184282543638424</v>
+        <v>0.04282717440390463</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1345498521313805</v>
+        <v>-0.1310864385427763</v>
       </c>
       <c r="C66">
-        <v>-0.134413888235382</v>
+        <v>0.01560802152994988</v>
       </c>
       <c r="D66">
-        <v>0.1432813390368501</v>
+        <v>-0.1394499844630649</v>
       </c>
       <c r="E66">
-        <v>0.006874994267094584</v>
+        <v>0.06700888041275316</v>
       </c>
       <c r="F66">
-        <v>-0.07566030327145457</v>
+        <v>0.03763509062802137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06314112518942969</v>
+        <v>-0.06252686545288134</v>
       </c>
       <c r="C67">
-        <v>-0.02824253149515803</v>
+        <v>0.003542845402856236</v>
       </c>
       <c r="D67">
-        <v>-0.01212557805974217</v>
+        <v>-0.05324716288584931</v>
       </c>
       <c r="E67">
-        <v>0.01836196132084736</v>
+        <v>0.01937168527471776</v>
       </c>
       <c r="F67">
-        <v>-0.1033869895129736</v>
+        <v>-0.03901200517072363</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1206359505778243</v>
+        <v>-0.1154795384372868</v>
       </c>
       <c r="C68">
-        <v>0.2479644481838883</v>
+        <v>0.02555309990058763</v>
       </c>
       <c r="D68">
-        <v>0.01874366587529607</v>
+        <v>0.2646525214028998</v>
       </c>
       <c r="E68">
-        <v>-0.07156725085196486</v>
+        <v>-0.08636041711391891</v>
       </c>
       <c r="F68">
-        <v>-0.01318130839363739</v>
+        <v>0.0363307030395029</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03590218762613822</v>
+        <v>-0.03927222692429792</v>
       </c>
       <c r="C69">
-        <v>0.01479839329520251</v>
+        <v>0.001080418209104299</v>
       </c>
       <c r="D69">
-        <v>-0.005095220937798685</v>
+        <v>-0.009075251531673684</v>
       </c>
       <c r="E69">
-        <v>0.006465636782328637</v>
+        <v>0.02430171543575902</v>
       </c>
       <c r="F69">
-        <v>-0.06047357663462811</v>
+        <v>-0.01299287198527584</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03663453643577533</v>
+        <v>-0.06372162961718934</v>
       </c>
       <c r="C70">
-        <v>-0.009168049662404882</v>
+        <v>-0.02766753806407372</v>
       </c>
       <c r="D70">
-        <v>0.0424413521252111</v>
+        <v>-0.02639357991815311</v>
       </c>
       <c r="E70">
-        <v>0.01508349511044802</v>
+        <v>-0.04803614955898527</v>
       </c>
       <c r="F70">
-        <v>-0.07790480855247922</v>
+        <v>-0.2797775287082936</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1399006543263492</v>
+        <v>-0.1343515163403839</v>
       </c>
       <c r="C71">
-        <v>0.2681906827554202</v>
+        <v>0.02984229615477348</v>
       </c>
       <c r="D71">
-        <v>0.01355389066576176</v>
+        <v>0.2800516212725145</v>
       </c>
       <c r="E71">
-        <v>-0.03394878577100923</v>
+        <v>-0.09504507183865338</v>
       </c>
       <c r="F71">
-        <v>-0.05815636993787567</v>
+        <v>0.04153652632084104</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1428654355754003</v>
+        <v>-0.139810157397578</v>
       </c>
       <c r="C72">
-        <v>-0.02178645656574433</v>
+        <v>0.02457034492419146</v>
       </c>
       <c r="D72">
-        <v>-0.01045305686427614</v>
+        <v>-0.005228794981786526</v>
       </c>
       <c r="E72">
-        <v>0.006703494719929448</v>
+        <v>0.04539939169440539</v>
       </c>
       <c r="F72">
-        <v>-0.0200142798073783</v>
+        <v>0.02110444059116567</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2193309448403096</v>
+        <v>-0.2043617036690885</v>
       </c>
       <c r="C73">
-        <v>-0.02299546707024346</v>
+        <v>0.01145632368893856</v>
       </c>
       <c r="D73">
-        <v>0.1070583930213085</v>
+        <v>-0.01582499282239156</v>
       </c>
       <c r="E73">
-        <v>0.1437549138243063</v>
+        <v>0.0620257524063763</v>
       </c>
       <c r="F73">
-        <v>-0.02394562771040815</v>
+        <v>0.03766483735843966</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1213323423442235</v>
+        <v>-0.09401196355367977</v>
       </c>
       <c r="C74">
-        <v>-0.08809147059868526</v>
+        <v>0.01213168911554892</v>
       </c>
       <c r="D74">
-        <v>0.004462658854368221</v>
+        <v>-0.02238496330029859</v>
       </c>
       <c r="E74">
-        <v>0.02518344971504594</v>
+        <v>0.04860910360278652</v>
       </c>
       <c r="F74">
-        <v>-0.1037573933798861</v>
+        <v>0.04356096461220797</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1100749472126505</v>
+        <v>-0.129955128939143</v>
       </c>
       <c r="C75">
-        <v>-0.06538559358476909</v>
+        <v>0.02638869033631159</v>
       </c>
       <c r="D75">
-        <v>0.001785525710805824</v>
+        <v>-0.03370398205090951</v>
       </c>
       <c r="E75">
-        <v>0.01946147255701795</v>
+        <v>0.06054123501743042</v>
       </c>
       <c r="F75">
-        <v>-0.006745930625975047</v>
+        <v>0.01352632344538324</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02770316514176068</v>
+        <v>-0.004251357868940772</v>
       </c>
       <c r="C76">
-        <v>0.008778277428889323</v>
+        <v>0.001007422243178434</v>
       </c>
       <c r="D76">
-        <v>0.01198195543135791</v>
+        <v>0.00199485310005619</v>
       </c>
       <c r="E76">
-        <v>0.02357163293276629</v>
+        <v>0.00157324161965841</v>
       </c>
       <c r="F76">
-        <v>-0.01713480357632774</v>
+        <v>0.004121122421535081</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0653168215006005</v>
+        <v>-0.07904744261271117</v>
       </c>
       <c r="C77">
-        <v>-0.04634995104371991</v>
+        <v>0.01027425912714616</v>
       </c>
       <c r="D77">
-        <v>0.03556659755752782</v>
+        <v>-0.1128373179620463</v>
       </c>
       <c r="E77">
-        <v>0.04475194671069641</v>
+        <v>0.03783505174535728</v>
       </c>
       <c r="F77">
-        <v>0.05555694138001976</v>
+        <v>0.03627289316160523</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1293170531474155</v>
+        <v>-0.1054738723297434</v>
       </c>
       <c r="C78">
-        <v>-0.08431075381030953</v>
+        <v>0.04181906162316133</v>
       </c>
       <c r="D78">
-        <v>-0.2238862717870932</v>
+        <v>-0.1160530518357159</v>
       </c>
       <c r="E78">
-        <v>-0.09080577347169115</v>
+        <v>0.08254431981982756</v>
       </c>
       <c r="F78">
-        <v>0.5742248528641922</v>
+        <v>0.07885324297232141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1285190481050501</v>
+        <v>-0.1645097822311754</v>
       </c>
       <c r="C79">
-        <v>-0.05525074642508061</v>
+        <v>0.02036470998407411</v>
       </c>
       <c r="D79">
-        <v>-0.01171375413180121</v>
+        <v>-0.01924801280879294</v>
       </c>
       <c r="E79">
-        <v>0.04895335128141617</v>
+        <v>0.04972480985508321</v>
       </c>
       <c r="F79">
-        <v>-0.02999133189762683</v>
+        <v>0.005552541883430715</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08008484286610999</v>
+        <v>-0.08041017135356029</v>
       </c>
       <c r="C80">
-        <v>-0.08067771626717514</v>
+        <v>-0.0003667097947062396</v>
       </c>
       <c r="D80">
-        <v>0.07146609100659164</v>
+        <v>-0.05820662868535868</v>
       </c>
       <c r="E80">
-        <v>0.01204957361670398</v>
+        <v>0.03531325046122936</v>
       </c>
       <c r="F80">
-        <v>-0.08780271281429966</v>
+        <v>-0.01548543239051359</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1392747941597046</v>
+        <v>-0.1231854525541112</v>
       </c>
       <c r="C81">
-        <v>-0.08603638389675229</v>
+        <v>0.03037389565298262</v>
       </c>
       <c r="D81">
-        <v>0.007908868148195509</v>
+        <v>-0.01844570923421882</v>
       </c>
       <c r="E81">
-        <v>0.04220455422127708</v>
+        <v>0.05967844043365777</v>
       </c>
       <c r="F81">
-        <v>-0.01433565285511264</v>
+        <v>0.004279682694241259</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1540672889191078</v>
+        <v>-0.1638776511570314</v>
       </c>
       <c r="C82">
-        <v>-0.06987263598085812</v>
+        <v>0.02136128723390285</v>
       </c>
       <c r="D82">
-        <v>0.0218648560882528</v>
+        <v>-0.01569782234733372</v>
       </c>
       <c r="E82">
-        <v>0.04557057526336514</v>
+        <v>0.0340746086481632</v>
       </c>
       <c r="F82">
-        <v>-0.09536636456542054</v>
+        <v>0.06231095284022627</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08351285605416198</v>
+        <v>-0.06355737702353666</v>
       </c>
       <c r="C83">
-        <v>-0.1373165317126617</v>
+        <v>0.003501880816051171</v>
       </c>
       <c r="D83">
-        <v>-0.01418383108476574</v>
+        <v>-0.04870599412136707</v>
       </c>
       <c r="E83">
-        <v>-0.004193684496246054</v>
+        <v>0.00473122898924767</v>
       </c>
       <c r="F83">
-        <v>-0.04121965076384661</v>
+        <v>-0.04080235442314714</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05505865172186111</v>
+        <v>-0.05943273084029982</v>
       </c>
       <c r="C84">
-        <v>0.09394227003119561</v>
+        <v>0.01128677214301046</v>
       </c>
       <c r="D84">
-        <v>0.05520821350721046</v>
+        <v>-0.06311469529586698</v>
       </c>
       <c r="E84">
-        <v>-0.008160226055096113</v>
+        <v>0.001135461027982159</v>
       </c>
       <c r="F84">
-        <v>0.2178908451809296</v>
+        <v>0.01108567380391266</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1241512517259474</v>
+        <v>-0.138736740837186</v>
       </c>
       <c r="C85">
-        <v>-0.05120280557488737</v>
+        <v>0.02583628077733549</v>
       </c>
       <c r="D85">
-        <v>0.01298829289718277</v>
+        <v>-0.01604475734048682</v>
       </c>
       <c r="E85">
-        <v>0.06393209100993118</v>
+        <v>0.04128582925671066</v>
       </c>
       <c r="F85">
-        <v>-0.05413430609743583</v>
+        <v>0.04494312200774626</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08502421865943716</v>
+        <v>-0.09770468271307155</v>
       </c>
       <c r="C86">
-        <v>0.001871495075344195</v>
+        <v>-0.007069163968825063</v>
       </c>
       <c r="D86">
-        <v>-0.02214243037896042</v>
+        <v>-0.02033072465106853</v>
       </c>
       <c r="E86">
-        <v>0.143514731392113</v>
+        <v>0.1528271730167696</v>
       </c>
       <c r="F86">
-        <v>0.5585252132241023</v>
+        <v>-0.86460139250694</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1121949279513098</v>
+        <v>-0.09870606278466221</v>
       </c>
       <c r="C87">
-        <v>-0.1140360989488567</v>
+        <v>0.02507003240429355</v>
       </c>
       <c r="D87">
-        <v>-0.03404332931812186</v>
+        <v>-0.07701847002152296</v>
       </c>
       <c r="E87">
-        <v>0.07890862329060339</v>
+        <v>-0.05332625548393612</v>
       </c>
       <c r="F87">
-        <v>0.07649995024476479</v>
+        <v>0.08099009791932742</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05212416711229982</v>
+        <v>-0.06136960396664837</v>
       </c>
       <c r="C88">
-        <v>-0.05159281804116264</v>
+        <v>0.003041924539561838</v>
       </c>
       <c r="D88">
-        <v>0.04462587307521043</v>
+        <v>-0.05378587455613199</v>
       </c>
       <c r="E88">
-        <v>0.02388843882767878</v>
+        <v>0.02775495288512667</v>
       </c>
       <c r="F88">
-        <v>-0.04881210181152772</v>
+        <v>0.008337556567420667</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1962190581740934</v>
+        <v>-0.1349134416323307</v>
       </c>
       <c r="C89">
-        <v>0.3640766814572849</v>
+        <v>0.007912316028622685</v>
       </c>
       <c r="D89">
-        <v>-0.05367973992406742</v>
+        <v>0.2587407541163366</v>
       </c>
       <c r="E89">
-        <v>-0.02112852110499781</v>
+        <v>-0.09112405322887814</v>
       </c>
       <c r="F89">
-        <v>-0.03668575879886014</v>
+        <v>0.02444428888923623</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.151415503605898</v>
+        <v>-0.1451538048309307</v>
       </c>
       <c r="C90">
-        <v>0.2552266172812935</v>
+        <v>0.0251939879841768</v>
       </c>
       <c r="D90">
-        <v>0.0281356251194059</v>
+        <v>0.2675238077849775</v>
       </c>
       <c r="E90">
-        <v>-0.02211818992961163</v>
+        <v>-0.1082625256109704</v>
       </c>
       <c r="F90">
-        <v>-0.02795417513415988</v>
+        <v>0.02482762276695502</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08029302480408339</v>
+        <v>-0.1187148200192486</v>
       </c>
       <c r="C91">
-        <v>-0.04242830976584162</v>
+        <v>0.01672949946780617</v>
       </c>
       <c r="D91">
-        <v>0.007743767643290576</v>
+        <v>0.00735049073768189</v>
       </c>
       <c r="E91">
-        <v>0.04537216720165595</v>
+        <v>0.05758097063986335</v>
       </c>
       <c r="F91">
-        <v>-0.01974467597963481</v>
+        <v>-0.02113510348603636</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.170302176579067</v>
+        <v>-0.1491710751863538</v>
       </c>
       <c r="C92">
-        <v>0.2989519462946189</v>
+        <v>0.01717430857904771</v>
       </c>
       <c r="D92">
-        <v>-0.0255932169189496</v>
+        <v>0.2986361635155098</v>
       </c>
       <c r="E92">
-        <v>-0.02688747997496968</v>
+        <v>-0.1037727560547381</v>
       </c>
       <c r="F92">
-        <v>-0.02553276102221926</v>
+        <v>0.02163738051776529</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1539739733371906</v>
+        <v>-0.149915555037075</v>
       </c>
       <c r="C93">
-        <v>0.3162896663053249</v>
+        <v>0.02185418163260294</v>
       </c>
       <c r="D93">
-        <v>0.0583202218465046</v>
+        <v>0.2703411115072915</v>
       </c>
       <c r="E93">
-        <v>-0.02815185813075961</v>
+        <v>-0.07398395445630933</v>
       </c>
       <c r="F93">
-        <v>-0.02132317909542486</v>
+        <v>0.01703223630110656</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343116898235483</v>
+        <v>-0.1331866640236592</v>
       </c>
       <c r="C94">
-        <v>-0.0602295375623517</v>
+        <v>0.02380990994006481</v>
       </c>
       <c r="D94">
-        <v>-0.01489331527010608</v>
+        <v>-0.04604856865752311</v>
       </c>
       <c r="E94">
-        <v>0.0295979858500579</v>
+        <v>0.06133461668473562</v>
       </c>
       <c r="F94">
-        <v>-0.03902949698851575</v>
+        <v>0.03090902377156778</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1188927933636157</v>
+        <v>-0.126016640309202</v>
       </c>
       <c r="C95">
-        <v>-0.05046674277634174</v>
+        <v>0.005461761245095322</v>
       </c>
       <c r="D95">
-        <v>-0.02023589288642864</v>
+        <v>-0.09068424870815285</v>
       </c>
       <c r="E95">
-        <v>0.03842057162100668</v>
+        <v>0.04418337597041353</v>
       </c>
       <c r="F95">
-        <v>0.128296187869568</v>
+        <v>-0.012234597375089</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.009790725201731331</v>
+        <v>-0.09859182034459785</v>
       </c>
       <c r="C96">
-        <v>-0.004138219541426891</v>
+        <v>-0.9889365265146768</v>
       </c>
       <c r="D96">
-        <v>-0.005467204952846316</v>
+        <v>0.02755342566718133</v>
       </c>
       <c r="E96">
-        <v>-4.226653285431172e-05</v>
+        <v>0.05787241162639759</v>
       </c>
       <c r="F96">
-        <v>0.02801227196697645</v>
+        <v>0.0480956539827338</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1717152785830781</v>
+        <v>-0.1881927887801154</v>
       </c>
       <c r="C97">
-        <v>-0.1670866535357312</v>
+        <v>-0.01107020203320708</v>
       </c>
       <c r="D97">
-        <v>-0.1576001349821299</v>
+        <v>0.008126018383293989</v>
       </c>
       <c r="E97">
-        <v>-0.890465715402575</v>
+        <v>0.01809132123567059</v>
       </c>
       <c r="F97">
-        <v>0.01676513591492782</v>
+        <v>-0.1749471414550189</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2408141666929112</v>
+        <v>-0.2047858193639071</v>
       </c>
       <c r="C98">
-        <v>-0.0470406581700869</v>
+        <v>0.007023556049155645</v>
       </c>
       <c r="D98">
-        <v>-0.07198020893142158</v>
+        <v>-0.01139850415578848</v>
       </c>
       <c r="E98">
-        <v>0.02670768134908249</v>
+        <v>-0.09759033726393433</v>
       </c>
       <c r="F98">
-        <v>-0.09986805544609507</v>
+        <v>-0.1153169136200563</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05510155332168904</v>
+        <v>-0.05658857276076838</v>
       </c>
       <c r="C99">
-        <v>-0.004816894235335871</v>
+        <v>-0.003761772770827765</v>
       </c>
       <c r="D99">
-        <v>0.0005629441158299812</v>
+        <v>-0.03577463653015369</v>
       </c>
       <c r="E99">
-        <v>0.008489438809723209</v>
+        <v>0.02686637691805845</v>
       </c>
       <c r="F99">
-        <v>-0.01379821570959533</v>
+        <v>0.004764872972396841</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.03061456828078482</v>
+        <v>-0.12459895227021</v>
       </c>
       <c r="C100">
-        <v>-0.06362220558905202</v>
+        <v>-0.04944280359857057</v>
       </c>
       <c r="D100">
-        <v>0.04026075113583508</v>
+        <v>-0.3444296976934552</v>
       </c>
       <c r="E100">
-        <v>-0.1013929096721692</v>
+        <v>-0.8955921275371957</v>
       </c>
       <c r="F100">
-        <v>-0.24231547153585</v>
+        <v>-0.07672072629633681</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03483929128754853</v>
+        <v>-0.02702967499677722</v>
       </c>
       <c r="C101">
-        <v>-0.02942947067599221</v>
+        <v>0.00885957678253246</v>
       </c>
       <c r="D101">
-        <v>0.02089827968066341</v>
+        <v>-0.03106576430525051</v>
       </c>
       <c r="E101">
-        <v>0.03198924719625141</v>
+        <v>0.01172871114367788</v>
       </c>
       <c r="F101">
-        <v>-0.02228332700475388</v>
+        <v>-0.01404416381117938</v>
       </c>
     </row>
     <row r="102" spans="1:6">
